--- a/step13_HPO_TDA/Anemia199HPOBands (manual interp).xlsx
+++ b/step13_HPO_TDA/Anemia199HPOBands (manual interp).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wslshare\github\inherited_anemias\step13_HPO_TDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E096C91-2669-4CB0-B434-E194B5FDE39D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0EAD596-6917-4D32-B659-3C6C7CDE6BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{715AF21C-6545-4ED6-B12C-C181A04A2B21}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{715AF21C-6545-4ED6-B12C-C181A04A2B21}"/>
   </bookViews>
   <sheets>
     <sheet name="Anemia199HPOBands" sheetId="1" r:id="rId1"/>
@@ -1929,7 +1929,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
@@ -1943,6 +1943,21 @@
     <xf numFmtId="0" fontId="16" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1988,7 +2003,50 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="0.89999084444715716"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="0.89999084444715716"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3526,6 +3584,110 @@
   <dataFields count="1">
     <dataField name="Count of pt_index" fld="0" subtotal="count" baseField="1" baseItem="0"/>
   </dataFields>
+  <formats count="6">
+    <format dxfId="5">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="32"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="4">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="32"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="3">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="25"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="2">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="25"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="25">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+            <x v="5"/>
+            <x v="6"/>
+            <x v="7"/>
+            <x v="8"/>
+            <x v="9"/>
+            <x v="10"/>
+            <x v="11"/>
+            <x v="12"/>
+            <x v="13"/>
+            <x v="14"/>
+            <x v="15"/>
+            <x v="16"/>
+            <x v="17"/>
+            <x v="18"/>
+            <x v="19"/>
+            <x v="20"/>
+            <x v="21"/>
+            <x v="22"/>
+            <x v="23"/>
+            <x v="24"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="25">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+            <x v="5"/>
+            <x v="6"/>
+            <x v="7"/>
+            <x v="8"/>
+            <x v="9"/>
+            <x v="10"/>
+            <x v="11"/>
+            <x v="12"/>
+            <x v="13"/>
+            <x v="14"/>
+            <x v="15"/>
+            <x v="16"/>
+            <x v="17"/>
+            <x v="18"/>
+            <x v="19"/>
+            <x v="20"/>
+            <x v="21"/>
+            <x v="22"/>
+            <x v="23"/>
+            <x v="24"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -3857,8 +4019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8005D50B-B9B0-4F93-9DF7-AF59B26C07AA}">
   <dimension ref="A1:J264"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A227" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -34360,8 +34522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB08B8C0-FE2F-4516-87D6-8F04EC3D8AC6}">
   <dimension ref="A3:B85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B85" sqref="A4:B85"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34379,642 +34541,642 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="13" t="s">
         <v>365</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="13" t="s">
         <v>405</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="13" t="s">
         <v>372</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="13" t="s">
         <v>400</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="13" t="s">
         <v>384</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="13" t="s">
         <v>308</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="13" t="s">
         <v>412</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="13" t="s">
         <v>421</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="13" t="s">
         <v>415</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="13" t="s">
         <v>363</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="13" t="s">
         <v>411</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="13" t="s">
         <v>362</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="13" t="s">
         <v>357</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="13" t="s">
         <v>374</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="13" t="s">
         <v>419</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="13" t="s">
         <v>402</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="13" t="s">
         <v>413</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="13" t="s">
         <v>399</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="3">
         <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="13" t="s">
         <v>393</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="13" t="s">
         <v>394</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="13" t="s">
         <v>361</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="13" t="s">
         <v>417</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="4">
         <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="13" t="s">
         <v>334</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="13" t="s">
         <v>418</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="13" t="s">
         <v>336</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="13" t="s">
         <v>378</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="13" t="s">
         <v>380</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="13" t="s">
         <v>420</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="13" t="s">
         <v>383</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="13" t="s">
         <v>364</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="13" t="s">
         <v>390</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="13" t="s">
         <v>373</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
+      <c r="A56" s="13" t="s">
         <v>388</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="7" t="s">
+      <c r="A59" s="13" t="s">
         <v>408</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="13" t="s">
         <v>397</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="7" t="s">
+      <c r="A62" s="13" t="s">
         <v>327</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="7" t="s">
+      <c r="A63" s="13" t="s">
         <v>376</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="7" t="s">
+      <c r="A64" s="13" t="s">
         <v>401</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="7" t="s">
+      <c r="A65" s="13" t="s">
         <v>414</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="7" t="s">
+      <c r="A66" s="13" t="s">
         <v>392</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="7" t="s">
+      <c r="A67" s="13" t="s">
         <v>370</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="7" t="s">
+      <c r="A68" s="13" t="s">
         <v>369</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="7" t="s">
+      <c r="A69" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="7" t="s">
+      <c r="A70" s="13" t="s">
         <v>339</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="7" t="s">
+      <c r="A71" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="2">
         <v>21</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="7" t="s">
+      <c r="A72" s="13" t="s">
         <v>391</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="7" t="s">
+      <c r="A73" s="13" t="s">
         <v>360</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="7" t="s">
+      <c r="A74" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="7" t="s">
+      <c r="A75" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="7" t="s">
+      <c r="A76" s="13" t="s">
         <v>359</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="7" t="s">
+      <c r="A77" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="7" t="s">
+      <c r="A78" s="13" t="s">
         <v>410</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="7" t="s">
+      <c r="A79" s="13" t="s">
         <v>319</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="7" t="s">
+      <c r="A80" s="13" t="s">
         <v>358</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="7" t="s">
+      <c r="A81" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="7" t="s">
+      <c r="A82" s="13" t="s">
         <v>385</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="7" t="s">
+      <c r="A83" s="13" t="s">
         <v>382</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="2">
         <v>1</v>
       </c>
     </row>
@@ -35038,24 +35200,28 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04294853-4173-4657-B70E-624A2FF0081B}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:C81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="87.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="71.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="46.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="14" t="s">
         <v>429</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -35063,686 +35229,752 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>40</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>31</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>9</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>5</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>4</v>
       </c>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>4</v>
       </c>
+      <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>4</v>
       </c>
+      <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>3</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>3</v>
       </c>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>3</v>
       </c>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>2</v>
       </c>
+      <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>2</v>
       </c>
+      <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>2</v>
       </c>
+      <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>2</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="2" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>2</v>
       </c>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2">
         <v>2</v>
       </c>
+      <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="2">
         <v>2</v>
       </c>
+      <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="2">
         <v>2</v>
       </c>
+      <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="2">
         <v>2</v>
       </c>
+      <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="2">
         <v>2</v>
       </c>
+      <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="2">
         <v>2</v>
       </c>
+      <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="2">
         <v>2</v>
       </c>
+      <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="2">
         <v>2</v>
       </c>
+      <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="2">
         <v>2</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="2" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="2">
         <v>2</v>
       </c>
+      <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="2">
         <v>2</v>
       </c>
+      <c r="C31" s="2"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="2">
         <v>2</v>
       </c>
+      <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="2">
         <v>2</v>
       </c>
+      <c r="C33" s="2"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="2">
         <v>2</v>
       </c>
+      <c r="C34" s="2"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="2">
         <v>2</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="2" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="2">
         <v>2</v>
       </c>
+      <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="2">
         <v>2</v>
       </c>
+      <c r="C37" s="2"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="2">
         <v>2</v>
       </c>
+      <c r="C38" s="2"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="2">
         <v>2</v>
       </c>
+      <c r="C39" s="2"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="2">
         <v>2</v>
       </c>
+      <c r="C40" s="2"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="2">
         <v>2</v>
       </c>
+      <c r="C41" s="2"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
+      <c r="B42" s="2">
+        <v>1</v>
+      </c>
+      <c r="C42" s="2"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
+      <c r="B43" s="2">
+        <v>1</v>
+      </c>
+      <c r="C43" s="2"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="A44" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
+      <c r="B44" s="2">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
+      <c r="B45" s="2">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
+      <c r="B46" s="2">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
+      <c r="B47" s="2">
+        <v>1</v>
+      </c>
+      <c r="C47" s="2"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="A48" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
+      <c r="B48" s="2">
+        <v>1</v>
+      </c>
+      <c r="C48" s="2"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="A49" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="B49" s="2">
+        <v>1</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="A50" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
+      <c r="B50" s="2">
+        <v>1</v>
+      </c>
+      <c r="C50" s="2"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="A51" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
+      <c r="B51" s="2">
+        <v>1</v>
+      </c>
+      <c r="C51" s="2"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="A52" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
+      <c r="B52" s="2">
+        <v>1</v>
+      </c>
+      <c r="C52" s="2"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="A53" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
+      <c r="B53" s="2">
+        <v>1</v>
+      </c>
+      <c r="C53" s="2"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="A54" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="B54">
-        <v>1</v>
-      </c>
+      <c r="B54" s="2">
+        <v>1</v>
+      </c>
+      <c r="C54" s="2"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="A55" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="B55">
-        <v>1</v>
-      </c>
+      <c r="B55" s="2">
+        <v>1</v>
+      </c>
+      <c r="C55" s="2"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="A56" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B56">
-        <v>1</v>
-      </c>
+      <c r="B56" s="2">
+        <v>1</v>
+      </c>
+      <c r="C56" s="2"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="A57" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="B57">
-        <v>1</v>
-      </c>
+      <c r="B57" s="2">
+        <v>1</v>
+      </c>
+      <c r="C57" s="2"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="A58" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="B58">
-        <v>1</v>
-      </c>
+      <c r="B58" s="2">
+        <v>1</v>
+      </c>
+      <c r="C58" s="2"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="A59" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="B59">
-        <v>1</v>
-      </c>
+      <c r="B59" s="2">
+        <v>1</v>
+      </c>
+      <c r="C59" s="2"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="A60" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="B60">
-        <v>1</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="B60" s="2">
+        <v>1</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="A61" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="B61">
-        <v>1</v>
-      </c>
+      <c r="B61" s="2">
+        <v>1</v>
+      </c>
+      <c r="C61" s="2"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="A62" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="B62">
-        <v>1</v>
-      </c>
+      <c r="B62" s="2">
+        <v>1</v>
+      </c>
+      <c r="C62" s="2"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="A63" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B63">
-        <v>1</v>
-      </c>
+      <c r="B63" s="2">
+        <v>1</v>
+      </c>
+      <c r="C63" s="2"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="A64" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="B64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="B64" s="2">
+        <v>1</v>
+      </c>
+      <c r="C64" s="2"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="B65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="B65" s="2">
+        <v>1</v>
+      </c>
+      <c r="C65" s="2"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="B66" s="2">
+        <v>1</v>
+      </c>
+      <c r="C66" s="2"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="B67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="B67" s="2">
+        <v>1</v>
+      </c>
+      <c r="C67" s="2"/>
+    </row>
+    <row r="68" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="15" t="s">
         <v>373</v>
       </c>
-      <c r="B68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="B68" s="2">
+        <v>1</v>
+      </c>
+      <c r="C68" s="2"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="B69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="B69" s="2">
+        <v>1</v>
+      </c>
+      <c r="C69" s="2"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="B70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="B70" s="2">
+        <v>1</v>
+      </c>
+      <c r="C70" s="2"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="B71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="B71" s="2">
+        <v>1</v>
+      </c>
+      <c r="C71" s="2"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="B72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="B72" s="2">
+        <v>1</v>
+      </c>
+      <c r="C72" s="2"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="B73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="B73" s="2">
+        <v>1</v>
+      </c>
+      <c r="C73" s="2"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="B74" s="2">
+        <v>1</v>
+      </c>
+      <c r="C74" s="2"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="B75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="B75" s="2">
+        <v>1</v>
+      </c>
+      <c r="C75" s="2"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="B76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="B76" s="2">
+        <v>1</v>
+      </c>
+      <c r="C76" s="2"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="B77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="B77" s="2">
+        <v>1</v>
+      </c>
+      <c r="C77" s="2"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="B78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="B78" s="2">
+        <v>1</v>
+      </c>
+      <c r="C78" s="2"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="B79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="B79" s="2">
+        <v>1</v>
+      </c>
+      <c r="C79" s="2"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="B80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="B80" s="2">
+        <v>1</v>
+      </c>
+      <c r="C80" s="2"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="B81">
-        <v>1</v>
-      </c>
+      <c r="B81" s="2">
+        <v>1</v>
+      </c>
+      <c r="C81" s="2"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C84">
@@ -35750,5 +35982,6 @@
     <sortCondition ref="A2:A84"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="90" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>